--- a/数据库表格设计.xlsx
+++ b/数据库表格设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezaric\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6823F5A-653D-42B1-A2BF-10AF361CCF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E9B8A5-B04D-436E-B4CC-FA3263168B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>Actor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自增长id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,14 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id (uid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id (gid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +343,66 @@
   </si>
   <si>
     <t>该商品是否被选中，用于计算总价格和生成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店-商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id (user_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id (goods_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id (shop_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_addresss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,9 +461,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -702,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -712,7 +757,7 @@
     <col min="6" max="6" width="15.9140625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.9140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="11.9140625" customWidth="1"/>
@@ -746,31 +791,31 @@
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -782,10 +827,10 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
@@ -825,28 +870,28 @@
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -858,16 +903,16 @@
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>36</v>
@@ -876,7 +921,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -889,31 +934,34 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -922,28 +970,31 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -953,31 +1004,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -995,19 +1046,19 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>36</v>
@@ -1026,16 +1077,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1044,10 +1095,10 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>35</v>
@@ -1058,27 +1109,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1088,28 +1173,38 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1120,30 +1215,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>22</v>
       </c>
